--- a/WorkBot/main/backend/orders/OrderFiles/Sysco/Sysco _ COLLEGETOWN 20250221.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Sysco/Sysco _ COLLEGETOWN 20250221.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,6 +556,222 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2673867</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PKT Mayo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$37.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>$37.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3125531</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PKT Sugar - (Raw)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$34.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>$34.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7143223</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sausage - Vegan Patty</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$94.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>$94.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>7468531</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gatorade Cool Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$29.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>$29.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>7468515</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gatorade Fruit Punch</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$29.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>$29.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2240263</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chobani - Strawberry</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>$15.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>$15.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>0543585</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chobani - Black Cherry</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>$13.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>$13.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5756060</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SABRA - Hummus Roasted Garlic With Pretzels</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$28.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>$28.77</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
